--- a/invoice_gen/TEMPLATE/JF.xlsx
+++ b/invoice_gen/TEMPLATE/JF.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12180" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contract" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,14 +21,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="34">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -236,156 +235,12 @@
       <sz val="16"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <charset val="134"/>
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -404,194 +259,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -692,104 +361,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -819,153 +390,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="12" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="13" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="12" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="14" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="15" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -975,23 +408,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1047,8 +466,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1064,7 +481,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1088,9 +504,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1221,90 +634,148 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1315,57 +786,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal_SAMPEL " xfId="49"/>
+    <cellStyle name="Normal_SAMPEL " xfId="3"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2065,6 +1490,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -2076,307 +1502,308 @@
   </sheetPr>
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="28.6666666666667" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="28.6640625" defaultRowHeight="13.8"/>
   <cols>
-    <col width="17.6666666666667" customWidth="1" style="100" min="1" max="1"/>
-    <col width="33.1047619047619" customWidth="1" style="100" min="2" max="2"/>
-    <col width="42.552380952381" customWidth="1" style="100" min="3" max="3"/>
-    <col width="34.552380952381" customWidth="1" style="100" min="4" max="4"/>
-    <col width="47.552380952381" customWidth="1" style="100" min="5" max="5"/>
-    <col width="28.6666666666667" customWidth="1" style="100" min="6" max="16384"/>
+    <col width="17.6640625" customWidth="1" style="114" min="1" max="1"/>
+    <col width="33.109375" customWidth="1" style="114" min="2" max="2"/>
+    <col width="42.5546875" customWidth="1" style="114" min="3" max="3"/>
+    <col width="34.5546875" customWidth="1" style="114" min="4" max="4"/>
+    <col width="47.5546875" customWidth="1" style="114" min="5" max="5"/>
+    <col width="28.6640625" customWidth="1" style="114" min="6" max="6"/>
+    <col width="28.6640625" customWidth="1" style="114" min="7" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45.9" customHeight="1">
-      <c r="A1" s="101" t="inlineStr">
+    <row r="1" ht="45.9" customHeight="1" s="123">
+      <c r="A1" s="113" t="inlineStr">
         <is>
           <t>SALES CONTRACT</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="30" customFormat="1" customHeight="1" s="98">
-      <c r="A2" s="102" t="n"/>
-      <c r="B2" s="102" t="n"/>
-      <c r="C2" s="102" t="n"/>
-      <c r="D2" s="102" t="n"/>
-      <c r="E2" s="102" t="n"/>
-    </row>
-    <row r="3" ht="27" customFormat="1" customHeight="1" s="98">
-      <c r="B3" s="103" t="n"/>
-      <c r="C3" s="103" t="n"/>
-      <c r="D3" s="104" t="inlineStr">
+    <row r="2" ht="30" customFormat="1" customHeight="1" s="88">
+      <c r="A2" s="91" t="n"/>
+      <c r="B2" s="91" t="n"/>
+      <c r="C2" s="91" t="n"/>
+      <c r="D2" s="91" t="n"/>
+      <c r="E2" s="91" t="n"/>
+    </row>
+    <row r="3" ht="27" customFormat="1" customHeight="1" s="88">
+      <c r="B3" s="92" t="n"/>
+      <c r="C3" s="92" t="n"/>
+      <c r="D3" s="93" t="inlineStr">
         <is>
           <t>DATE:</t>
         </is>
       </c>
-      <c r="E3" s="128">
+      <c r="E3" s="142">
         <f>Invoice!G9</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="30" customFormat="1" customHeight="1" s="98">
-      <c r="A4" s="103" t="n"/>
-      <c r="B4" s="103" t="n"/>
-      <c r="C4" s="103" t="n"/>
-      <c r="D4" s="104" t="inlineStr">
+    <row r="4" ht="30" customFormat="1" customHeight="1" s="88">
+      <c r="A4" s="92" t="n"/>
+      <c r="B4" s="92" t="n"/>
+      <c r="C4" s="92" t="n"/>
+      <c r="D4" s="93" t="inlineStr">
         <is>
           <t>CONTRACT NO.:</t>
         </is>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="95">
         <f>Invoice!G8</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="32.1" customFormat="1" customHeight="1" s="99">
-      <c r="A5" s="107" t="inlineStr">
+    <row r="5" ht="32.1" customFormat="1" customHeight="1" s="116">
+      <c r="A5" s="96" t="inlineStr">
         <is>
           <t xml:space="preserve">The Seller:   </t>
         </is>
       </c>
-      <c r="B5" s="99" t="inlineStr">
+      <c r="B5" s="116" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="32.1" customFormat="1" customHeight="1" s="99">
-      <c r="B6" s="99" t="inlineStr">
+    <row r="6" ht="32.1" customFormat="1" customHeight="1" s="116">
+      <c r="B6" s="116" t="inlineStr">
         <is>
           <t>XIN BAVET SEZ, Road No. 316A, Trapeang Bon and  Prey Kokir  Villages, Prey Kokir  Commune, Chantrea District,</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="32.1" customFormat="1" customHeight="1" s="99">
-      <c r="B7" s="99" t="inlineStr">
+    <row r="7" ht="32.1" customFormat="1" customHeight="1" s="116">
+      <c r="B7" s="116" t="inlineStr">
         <is>
           <t>Svay Rieng Province, Kingdom of Cambodia.</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="32.1" customFormat="1" customHeight="1" s="99">
-      <c r="A8" s="107" t="inlineStr">
+    <row r="8" ht="32.1" customFormat="1" customHeight="1" s="116">
+      <c r="A8" s="96" t="inlineStr">
         <is>
           <t>TEL:</t>
         </is>
       </c>
-      <c r="B8" s="108" t="inlineStr">
+      <c r="B8" s="97" t="inlineStr">
         <is>
           <t>+855   975910636</t>
         </is>
       </c>
-      <c r="C8" s="109" t="n"/>
-      <c r="D8" s="109" t="n"/>
-      <c r="E8" s="109" t="n"/>
-    </row>
-    <row r="9" ht="32.1" customFormat="1" customHeight="1" s="99">
-      <c r="A9" s="107" t="inlineStr">
+      <c r="C8" s="98" t="n"/>
+      <c r="D8" s="98" t="n"/>
+      <c r="E8" s="98" t="n"/>
+    </row>
+    <row r="9" ht="32.1" customFormat="1" customHeight="1" s="116">
+      <c r="A9" s="96" t="inlineStr">
         <is>
           <t xml:space="preserve">The Buyer:  </t>
         </is>
       </c>
-      <c r="B9" s="99" t="inlineStr">
+      <c r="B9" s="116" t="inlineStr">
         <is>
           <t>JASON FURNITURE VIET NAM COMPANY LIMITED</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="45" customFormat="1" customHeight="1" s="99">
-      <c r="A10" s="107" t="n"/>
-      <c r="B10" s="110" t="inlineStr">
+    <row r="10" ht="45" customFormat="1" customHeight="1" s="116">
+      <c r="A10" s="96" t="n"/>
+      <c r="B10" s="115" t="inlineStr">
         <is>
           <t>LOT 37, 38, 39, 40, 41, 44, 50, 51, 54，55, 56，B2 CLUSTER, DONG XOAI III INDUSTRIAL ZONE,</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="32.1" customFormat="1" customHeight="1" s="99">
-      <c r="A11" s="107" t="n"/>
-      <c r="B11" s="110" t="inlineStr">
+    <row r="11" ht="32.1" customFormat="1" customHeight="1" s="116">
+      <c r="A11" s="96" t="n"/>
+      <c r="B11" s="115" t="inlineStr">
         <is>
           <t>BINH PHUOC WARD, DONG NAI PROVINCE, VIETNAM</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="30" customFormat="1" customHeight="1" s="99">
-      <c r="A12" s="99" t="inlineStr">
+    <row r="12" ht="30" customFormat="1" customHeight="1" s="116">
+      <c r="A12" s="116" t="inlineStr">
         <is>
           <t>Contact Person : Contact Person : Mr. Thuy   Tel: 0379367084</t>
         </is>
       </c>
-      <c r="E12" s="107" t="n"/>
-    </row>
-    <row r="13" ht="60.9" customFormat="1" customHeight="1" s="99">
-      <c r="A13" s="111" t="inlineStr">
+      <c r="E12" s="96" t="n"/>
+    </row>
+    <row r="13" ht="60.9" customFormat="1" customHeight="1" s="116">
+      <c r="A13" s="117" t="inlineStr">
         <is>
           <t>EMAll:jyangbin4720@dingtalk.com jialy@kukahome.com dailin@kukahome.com huanggf@kukahome.com zhangzp@kukahome.com</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="54.9" customFormat="1" customHeight="1" s="99">
-      <c r="A14" s="112" t="inlineStr">
+    <row r="14" ht="54.9" customFormat="1" customHeight="1" s="116">
+      <c r="A14" s="118" t="inlineStr">
         <is>
           <t>The undersigned Sellers 、Buyers and Beneficiary have agreed to close the  following transactions according to the terms and conditions Stipulated below:</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="36" customHeight="1"/>
-    <row r="16" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customFormat="1" customHeight="1" s="99">
-      <c r="A17" s="129" t="n"/>
-      <c r="C17" s="130" t="n"/>
-      <c r="D17" s="130" t="n"/>
-      <c r="E17" s="130" t="n"/>
-    </row>
-    <row r="18" ht="30" customFormat="1" customHeight="1" s="99">
-      <c r="A18" s="120" t="inlineStr">
+    <row r="15" ht="36" customHeight="1" s="123"/>
+    <row r="16" ht="30" customHeight="1" s="123"/>
+    <row r="17" ht="30" customFormat="1" customHeight="1" s="116">
+      <c r="A17" s="143" t="n"/>
+      <c r="C17" s="144" t="n"/>
+      <c r="D17" s="144" t="n"/>
+      <c r="E17" s="144" t="n"/>
+    </row>
+    <row r="18" ht="30" customFormat="1" customHeight="1" s="116">
+      <c r="A18" s="106" t="inlineStr">
         <is>
           <t>FCA:</t>
         </is>
       </c>
-      <c r="B18" s="121" t="inlineStr">
+      <c r="B18" s="107" t="inlineStr">
         <is>
           <t>BAVET, SVAY RIENG</t>
         </is>
       </c>
-      <c r="C18" s="107" t="n"/>
-      <c r="D18" s="107" t="n"/>
-      <c r="E18" s="107" t="n"/>
-    </row>
-    <row r="19" ht="30" customFormat="1" customHeight="1" s="99">
-      <c r="A19" s="107" t="inlineStr">
+      <c r="C18" s="96" t="n"/>
+      <c r="D18" s="96" t="n"/>
+      <c r="E18" s="96" t="n"/>
+    </row>
+    <row r="19" ht="30" customFormat="1" customHeight="1" s="116">
+      <c r="A19" s="96" t="inlineStr">
         <is>
           <t>Term of Payment: 100% TT after shipment</t>
         </is>
       </c>
-      <c r="B19" s="107" t="n"/>
-      <c r="C19" s="107" t="n"/>
-      <c r="D19" s="107" t="n"/>
-      <c r="E19" s="107" t="n"/>
-    </row>
-    <row r="20" ht="36" customHeight="1">
-      <c r="A20" s="107" t="inlineStr">
+      <c r="B19" s="96" t="n"/>
+      <c r="C19" s="96" t="n"/>
+      <c r="D19" s="96" t="n"/>
+      <c r="E19" s="96" t="n"/>
+    </row>
+    <row r="20" ht="36" customHeight="1" s="123">
+      <c r="A20" s="96" t="inlineStr">
         <is>
           <t>Transaction method: FCA(USD)</t>
         </is>
       </c>
-      <c r="B20" s="107" t="n"/>
-      <c r="C20" s="107" t="n"/>
-      <c r="D20" s="107" t="n"/>
-      <c r="E20" s="107" t="n"/>
-    </row>
-    <row r="21" ht="20.25" customHeight="1">
-      <c r="A21" s="107" t="inlineStr">
+      <c r="B20" s="96" t="n"/>
+      <c r="C20" s="96" t="n"/>
+      <c r="D20" s="96" t="n"/>
+      <c r="E20" s="96" t="n"/>
+    </row>
+    <row r="21" ht="20.4" customHeight="1" s="123">
+      <c r="A21" s="96" t="inlineStr">
         <is>
           <t xml:space="preserve">Beneficiary bank information: </t>
         </is>
       </c>
-      <c r="B21" s="107" t="n"/>
-      <c r="C21" s="107" t="inlineStr">
+      <c r="B21" s="96" t="n"/>
+      <c r="C21" s="96" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
-      <c r="D21" s="107" t="n"/>
-      <c r="E21" s="107" t="n"/>
-    </row>
-    <row r="22" ht="45.9" customHeight="1">
-      <c r="A22" s="107" t="inlineStr">
+      <c r="D21" s="96" t="n"/>
+      <c r="E21" s="96" t="n"/>
+    </row>
+    <row r="22" ht="45.9" customHeight="1" s="123">
+      <c r="A22" s="96" t="inlineStr">
         <is>
           <t xml:space="preserve">Beneficiary Bank' s Name: </t>
         </is>
       </c>
-      <c r="B22" s="107" t="n"/>
-      <c r="C22" s="112" t="inlineStr">
+      <c r="B22" s="96" t="n"/>
+      <c r="C22" s="118" t="inlineStr">
         <is>
           <t>BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
  /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="41.1" customHeight="1">
-      <c r="A23" s="107" t="inlineStr">
+    <row r="23" ht="41.1" customHeight="1" s="123">
+      <c r="A23" s="96" t="inlineStr">
         <is>
           <t xml:space="preserve">Bank Address:  </t>
         </is>
       </c>
-      <c r="B23" s="107" t="n"/>
-      <c r="C23" s="112" t="inlineStr">
+      <c r="B23" s="96" t="n"/>
+      <c r="C23" s="118" t="inlineStr">
         <is>
           <t>1st AND 2nd FLOOR,CANADIA TOWER,No.315 ANDDUONG ST.
 PHNOM PEMH,CAMBODIA.</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="29.1" customHeight="1">
-      <c r="A24" s="107" t="inlineStr">
+    <row r="24" ht="29.1" customHeight="1" s="123">
+      <c r="A24" s="96" t="inlineStr">
         <is>
           <t>Bank account :</t>
         </is>
       </c>
-      <c r="B24" s="107" t="n"/>
-      <c r="C24" s="122" t="inlineStr">
+      <c r="B24" s="96" t="n"/>
+      <c r="C24" s="121" t="inlineStr">
         <is>
           <t>100001100764430</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="19.5" customHeight="1">
-      <c r="A25" s="107" t="inlineStr">
+    <row r="25" ht="19.2" customHeight="1" s="123">
+      <c r="A25" s="96" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：</t>
         </is>
       </c>
-      <c r="B25" s="107" t="n"/>
-      <c r="C25" s="107" t="inlineStr">
+      <c r="B25" s="96" t="n"/>
+      <c r="C25" s="96" t="inlineStr">
         <is>
           <t>BKCHKHPPXXX</t>
         </is>
       </c>
-      <c r="D25" s="107" t="n"/>
-      <c r="E25" s="107" t="n"/>
-    </row>
-    <row r="26" ht="45.9" customHeight="1">
-      <c r="A26" s="107" t="n"/>
-      <c r="B26" s="107" t="n"/>
-      <c r="C26" s="107" t="n"/>
-      <c r="D26" s="107" t="n"/>
-      <c r="E26" s="107" t="n"/>
-      <c r="F26" s="107" t="n"/>
-    </row>
-    <row r="27" ht="41.1" customHeight="1">
-      <c r="A27" s="123" t="inlineStr">
+      <c r="D25" s="96" t="n"/>
+      <c r="E25" s="96" t="n"/>
+    </row>
+    <row r="26" ht="45.9" customHeight="1" s="123">
+      <c r="A26" s="96" t="n"/>
+      <c r="B26" s="96" t="n"/>
+      <c r="C26" s="96" t="n"/>
+      <c r="D26" s="96" t="n"/>
+      <c r="E26" s="96" t="n"/>
+      <c r="F26" s="96" t="n"/>
+    </row>
+    <row r="27" ht="41.1" customHeight="1" s="123">
+      <c r="A27" s="108" t="inlineStr">
         <is>
           <t>The Buyer:</t>
         </is>
       </c>
-      <c r="D27" s="124" t="inlineStr">
+      <c r="D27" s="109" t="inlineStr">
         <is>
           <t>The Seller:</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="29.1" customHeight="1">
-      <c r="A28" s="125" t="inlineStr">
+    <row r="28" ht="29.1" customHeight="1" s="123">
+      <c r="A28" s="110" t="inlineStr">
         <is>
           <t>JASON FURNITURE VIET NAM COMPANY LIMITED</t>
         </is>
       </c>
-      <c r="B28" s="126" t="n"/>
-      <c r="C28" s="127" t="n"/>
-      <c r="D28" s="125" t="inlineStr">
+      <c r="B28" s="111" t="n"/>
+      <c r="C28" s="112" t="n"/>
+      <c r="D28" s="110" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
-      <c r="E28" s="125" t="n"/>
-    </row>
-    <row r="29" ht="19.5" customHeight="1"/>
-    <row r="30" ht="19.5" customHeight="1"/>
-    <row r="31" ht="20.25" customHeight="1"/>
-    <row r="32" ht="20.25" customHeight="1"/>
+      <c r="E28" s="110" t="n"/>
+    </row>
+    <row r="29" ht="19.2" customHeight="1" s="123"/>
+    <row r="30" ht="19.2" customHeight="1" s="123"/>
+    <row r="31" ht="21" customHeight="1" s="123"/>
+    <row r="32" ht="21" customHeight="1" s="123"/>
     <row r="33"/>
     <row r="34"/>
     <row r="35"/>
@@ -2533,7 +1960,7 @@
     <row r="186"/>
     <row r="187"/>
     <row r="188"/>
-    <row r="189" ht="27.9" customHeight="1"/>
+    <row r="189" ht="27.9" customHeight="1" s="123"/>
     <row r="190"/>
     <row r="191"/>
     <row r="192"/>
@@ -2544,7 +1971,7 @@
     <row r="197"/>
     <row r="198"/>
     <row r="199"/>
-    <row r="200" ht="27.9" customHeight="1"/>
+    <row r="200" ht="27.9" customHeight="1" s="123"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="C28:E28"/>
@@ -2553,8 +1980,8 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C26:E26"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A189:B189"/>
@@ -2578,430 +2005,430 @@
       <selection activeCell="G22" sqref="G22:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.1047619047619" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="24.3333333333333" customWidth="1" min="1" max="1"/>
-    <col width="28.1047619047619" customWidth="1" min="2" max="2"/>
-    <col width="21.6666666666667" customWidth="1" min="3" max="3"/>
-    <col width="18.3333333333333" customWidth="1" min="4" max="4"/>
-    <col width="15.6666666666667" customWidth="1" min="5" max="5"/>
-    <col width="16.4380952380952" customWidth="1" min="6" max="6"/>
-    <col width="24.8857142857143" customWidth="1" style="3" min="7" max="7"/>
-    <col width="25.1047619047619" customWidth="1" min="8" max="8"/>
-    <col width="15.552380952381" customWidth="1" min="9" max="9"/>
-    <col width="10.3333333333333" customWidth="1" min="10" max="10"/>
-    <col width="12.4380952380952" customWidth="1" min="12" max="12"/>
+    <col width="24.33203125" customWidth="1" style="123" min="1" max="1"/>
+    <col width="28.109375" customWidth="1" style="123" min="2" max="2"/>
+    <col width="21.6640625" customWidth="1" style="123" min="3" max="3"/>
+    <col width="18.33203125" customWidth="1" style="123" min="4" max="4"/>
+    <col width="15.6640625" customWidth="1" style="123" min="5" max="5"/>
+    <col width="16.44140625" customWidth="1" style="123" min="6" max="6"/>
+    <col width="24.88671875" customWidth="1" style="124" min="7" max="7"/>
+    <col width="25.109375" customWidth="1" style="123" min="8" max="8"/>
+    <col width="15.5546875" customWidth="1" style="123" min="9" max="9"/>
+    <col width="10.33203125" customWidth="1" style="123" min="10" max="10"/>
+    <col width="12.44140625" customWidth="1" style="123" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="38.25" customHeight="1" s="123">
+      <c r="A1" s="122" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+    <row r="2" ht="24" customHeight="1" s="123">
+      <c r="A2" s="125" t="inlineStr">
         <is>
           <t xml:space="preserve"> XIN BAVET SEZ, Road No. 316A, Trapeang Bon and  Prey Kokir  Villages, Prey Kokir  Commune, Chantrea District, </t>
         </is>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+    <row r="3" ht="17.25" customHeight="1" s="123">
+      <c r="A3" s="126" t="inlineStr">
         <is>
           <t>Svay Rieng Province, Kingdom of Cambodia.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+    <row r="4" ht="17.25" customHeight="1" s="123">
+      <c r="A4" s="125" t="inlineStr">
         <is>
           <t>VAT:L001-901903209</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
+    <row r="5" ht="25.5" customHeight="1" s="123">
+      <c r="A5" s="127" t="inlineStr">
         <is>
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="B5" s="9" t="n"/>
-      <c r="C5" s="9" t="n"/>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="9" t="n"/>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="9" t="n"/>
-    </row>
-    <row r="6" ht="83.25" customHeight="1">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="B5" s="128" t="n"/>
+      <c r="C5" s="128" t="n"/>
+      <c r="D5" s="128" t="n"/>
+      <c r="E5" s="128" t="n"/>
+      <c r="F5" s="128" t="n"/>
+      <c r="G5" s="128" t="n"/>
+    </row>
+    <row r="6" ht="83.25" customHeight="1" s="123">
+      <c r="A6" s="129" t="inlineStr">
         <is>
           <t>INVOICE</t>
         </is>
       </c>
-      <c r="B6" s="11" t="n"/>
-      <c r="C6" s="11" t="n"/>
-      <c r="D6" s="11" t="n"/>
-      <c r="E6" s="11" t="n"/>
-      <c r="F6" s="11" t="n"/>
-      <c r="G6" s="11" t="n"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="12" t="n"/>
-      <c r="B7" s="12" t="n"/>
-      <c r="C7" s="12" t="n"/>
-      <c r="D7" s="12" t="n"/>
-      <c r="E7" s="12" t="n"/>
-      <c r="F7" s="14" t="inlineStr">
+      <c r="B6" s="130" t="n"/>
+      <c r="C6" s="130" t="n"/>
+      <c r="D6" s="130" t="n"/>
+      <c r="E6" s="130" t="n"/>
+      <c r="F6" s="130" t="n"/>
+      <c r="G6" s="130" t="n"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" s="123">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>Ref No.:</t>
         </is>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="64">
         <f>'Packing list'!I7</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="15" t="inlineStr">
+    <row r="8" ht="30" customHeight="1" s="123">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>EXPORTER:</t>
         </is>
       </c>
-      <c r="B8" s="75" t="inlineStr">
+      <c r="B8" s="65" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="E8" s="75" t="n"/>
-      <c r="F8" s="17" t="inlineStr">
+      <c r="E8" s="65" t="n"/>
+      <c r="F8" s="11" t="inlineStr">
         <is>
           <t>INVOICE NO :</t>
         </is>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="66">
         <f>'Packing list'!I8</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="12" t="n"/>
-      <c r="B9" s="12" t="inlineStr">
+    <row r="9" ht="21" customHeight="1" s="123">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, </t>
         </is>
       </c>
-      <c r="E9" s="12" t="n"/>
-      <c r="F9" s="17" t="inlineStr">
+      <c r="E9" s="6" t="n"/>
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="145">
         <f>'Packing list'!I9</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="12" t="n"/>
-      <c r="B10" s="12" t="inlineStr">
+    <row r="10" ht="22.5" customHeight="1" s="123">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia </t>
         </is>
       </c>
-      <c r="E10" s="12" t="n"/>
-      <c r="F10" s="18" t="inlineStr">
+      <c r="E10" s="6" t="n"/>
+      <c r="F10" s="12" t="inlineStr">
         <is>
           <t>FCA :</t>
         </is>
       </c>
-      <c r="G10" s="77" t="inlineStr">
+      <c r="G10" s="67" t="inlineStr">
         <is>
           <t>BAVET, SVAYRIENG</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20.25" customHeight="1">
-      <c r="A11" s="12" t="n"/>
-      <c r="B11" s="12" t="inlineStr">
+    <row r="11" ht="20.25" customHeight="1" s="123">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="E11" s="12" t="n"/>
-      <c r="F11" s="12" t="n"/>
-      <c r="G11" s="6" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="n"/>
-      <c r="B12" s="12" t="n"/>
-      <c r="C12" s="12" t="n"/>
-      <c r="D12" s="12" t="n"/>
-      <c r="E12" s="12" t="n"/>
-      <c r="F12" s="12" t="n"/>
-      <c r="G12" s="6" t="n"/>
-    </row>
-    <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" s="19" t="inlineStr">
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="125" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="123">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="125" t="n"/>
+    </row>
+    <row r="13" ht="25.5" customHeight="1" s="123">
+      <c r="A13" s="13" t="inlineStr">
         <is>
           <t>CONSIGNEE :</t>
         </is>
       </c>
-      <c r="B13" s="78" t="inlineStr">
+      <c r="B13" s="68" t="inlineStr">
         <is>
           <t>JASON FURNITURE VIET NAM COMPANY LIMITED</t>
         </is>
       </c>
-      <c r="E13" s="79" t="n"/>
-      <c r="F13" s="79" t="n"/>
-      <c r="G13" s="27" t="n"/>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="12" t="n"/>
-      <c r="B14" s="80" t="inlineStr">
+      <c r="E13" s="69" t="n"/>
+      <c r="F13" s="69" t="n"/>
+      <c r="G13" s="21" t="n"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1" s="123">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="70" t="inlineStr">
         <is>
           <t>LOT 37, 38, 39, 40, 41, 44, 50, 51, 54，55, 56，B2 CLUSTER, DONG XOAI III INDUSTRIAL ZONE,</t>
         </is>
       </c>
-      <c r="C14" s="23" t="n"/>
-      <c r="D14" s="23" t="n"/>
-      <c r="E14" s="23" t="n"/>
-      <c r="F14" s="23" t="n"/>
-    </row>
-    <row r="15" ht="25.5" customHeight="1">
-      <c r="A15" s="12" t="n"/>
-      <c r="B15" s="28" t="inlineStr">
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="17" t="n"/>
+      <c r="E14" s="17" t="n"/>
+      <c r="F14" s="17" t="n"/>
+    </row>
+    <row r="15" ht="25.5" customHeight="1" s="123">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="22" t="inlineStr">
         <is>
           <t>BINH PHUOC WARD,DONG NAI PROVINCE, VIETNAM</t>
         </is>
       </c>
-      <c r="C15" s="26" t="n"/>
-      <c r="D15" s="26" t="n"/>
-      <c r="E15" s="26" t="n"/>
-      <c r="F15" s="27" t="n"/>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" s="12" t="n"/>
-      <c r="B16" s="52" t="inlineStr">
+      <c r="C15" s="20" t="n"/>
+      <c r="D15" s="20" t="n"/>
+      <c r="E15" s="20" t="n"/>
+      <c r="F15" s="21" t="n"/>
+    </row>
+    <row r="16" ht="25.5" customHeight="1" s="123">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="42" t="inlineStr">
         <is>
           <t>Contact Person : Mr. Thuy   TEl: 0379367084</t>
         </is>
       </c>
-      <c r="C16" s="26" t="n"/>
-      <c r="D16" s="26" t="n"/>
-      <c r="E16" s="26" t="n"/>
-      <c r="F16" s="26" t="n"/>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="A17" s="12" t="n"/>
-      <c r="B17" s="52" t="inlineStr">
+      <c r="C16" s="20" t="n"/>
+      <c r="D16" s="20" t="n"/>
+      <c r="E16" s="20" t="n"/>
+      <c r="F16" s="20" t="n"/>
+    </row>
+    <row r="17" ht="25.5" customHeight="1" s="123">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="42" t="inlineStr">
         <is>
           <t xml:space="preserve">EMAlL:jyangbin4720@dingtalk.com jialy@kukahome.com </t>
         </is>
       </c>
-      <c r="C17" s="26" t="n"/>
-      <c r="D17" s="26" t="n"/>
-      <c r="E17" s="26" t="n"/>
-      <c r="F17" s="27" t="n"/>
-    </row>
-    <row r="18" ht="25.5" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="52" t="inlineStr">
+      <c r="C17" s="20" t="n"/>
+      <c r="D17" s="20" t="n"/>
+      <c r="E17" s="20" t="n"/>
+      <c r="F17" s="21" t="n"/>
+    </row>
+    <row r="18" ht="25.5" customHeight="1" s="123">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="42" t="inlineStr">
         <is>
           <t>dailin@kukahome.com huanggf@kukahome.com zhangzp@kukahome.com</t>
         </is>
       </c>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="12" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="6" t="n"/>
-    </row>
-    <row r="19" ht="27.75" customHeight="1">
-      <c r="A19" s="29" t="inlineStr">
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="125" t="n"/>
+    </row>
+    <row r="19" ht="27.75" customHeight="1" s="123">
+      <c r="A19" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve">SHIP: </t>
         </is>
       </c>
-      <c r="B19" s="12" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO DONG NAI PROVINCE, VIETNAM.</t>
         </is>
       </c>
-      <c r="F19" s="3" t="n"/>
-    </row>
-    <row r="20" ht="27.75" customHeight="1">
-      <c r="A20" s="30" t="n"/>
-      <c r="B20" s="30" t="n"/>
-    </row>
-    <row r="21" ht="34.95" customHeight="1"/>
-    <row r="22" ht="34.95" customHeight="1"/>
-    <row r="23" ht="34.95" customHeight="1">
-      <c r="A23" s="61" t="n"/>
-      <c r="B23" s="61" t="n"/>
-      <c r="C23" s="83" t="n"/>
-      <c r="D23" s="83" t="n"/>
-      <c r="E23" s="83" t="n"/>
-      <c r="F23" s="83" t="n"/>
-      <c r="G23" s="27" t="n"/>
-      <c r="L23" s="95" t="n"/>
-      <c r="M23" s="96" t="n"/>
-      <c r="N23" s="97" t="n"/>
-      <c r="O23" s="97" t="n"/>
-    </row>
-    <row r="24" ht="42" customHeight="1">
-      <c r="A24" s="46" t="inlineStr">
+      <c r="F19" s="124" t="n"/>
+    </row>
+    <row r="20" ht="27.75" customHeight="1" s="123">
+      <c r="A20" s="24" t="n"/>
+      <c r="B20" s="24" t="n"/>
+    </row>
+    <row r="21" ht="34.95" customHeight="1" s="123"/>
+    <row r="22" ht="34.95" customHeight="1" s="123"/>
+    <row r="23" ht="34.95" customHeight="1" s="123">
+      <c r="A23" s="51" t="n"/>
+      <c r="B23" s="51" t="n"/>
+      <c r="C23" s="73" t="n"/>
+      <c r="D23" s="73" t="n"/>
+      <c r="E23" s="73" t="n"/>
+      <c r="F23" s="73" t="n"/>
+      <c r="G23" s="21" t="n"/>
+      <c r="L23" s="85" t="n"/>
+      <c r="M23" s="86" t="n"/>
+      <c r="N23" s="87" t="n"/>
+      <c r="O23" s="87" t="n"/>
+    </row>
+    <row r="24" ht="42" customHeight="1" s="123">
+      <c r="A24" s="131" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="D24" s="46" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="84" t="n"/>
-      <c r="G24" s="6" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="96" t="n"/>
-      <c r="N24" s="97" t="n"/>
-      <c r="O24" s="97" t="n"/>
-    </row>
-    <row r="25" ht="61.5" customHeight="1">
-      <c r="A25" s="48" t="inlineStr">
+      <c r="D24" s="131" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="74" t="n"/>
+      <c r="G24" s="125" t="n"/>
+      <c r="L24" s="85" t="n"/>
+      <c r="M24" s="86" t="n"/>
+      <c r="N24" s="87" t="n"/>
+      <c r="O24" s="87" t="n"/>
+    </row>
+    <row r="25" ht="61.5" customHeight="1" s="123">
+      <c r="A25" s="39" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B25" s="85" t="inlineStr">
+      <c r="B25" s="132" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="D25" s="85" t="n"/>
-      <c r="E25" s="85" t="n"/>
-      <c r="F25" s="12" t="n"/>
-      <c r="G25" s="6" t="n"/>
-      <c r="L25" s="95" t="n"/>
-      <c r="M25" s="96" t="n"/>
-      <c r="N25" s="97" t="n"/>
-      <c r="O25" s="97" t="n"/>
-    </row>
-    <row r="26" ht="42" customHeight="1">
-      <c r="A26" s="86" t="inlineStr">
+      <c r="D25" s="132" t="n"/>
+      <c r="E25" s="132" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="125" t="n"/>
+      <c r="L25" s="85" t="n"/>
+      <c r="M25" s="86" t="n"/>
+      <c r="N25" s="87" t="n"/>
+      <c r="O25" s="87" t="n"/>
+    </row>
+    <row r="26" ht="42" customHeight="1" s="123">
+      <c r="A26" s="133" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
                                                   /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="D26" s="86" t="n"/>
-      <c r="E26" s="86" t="n"/>
-      <c r="F26" s="86" t="n"/>
-      <c r="G26" s="6" t="n"/>
-      <c r="L26" s="95" t="n"/>
-      <c r="M26" s="96" t="n"/>
-      <c r="N26" s="97" t="n"/>
-      <c r="O26" s="97" t="n"/>
-    </row>
-    <row r="27" ht="24.75" customHeight="1">
-      <c r="A27" s="51" t="inlineStr">
+      <c r="D26" s="133" t="n"/>
+      <c r="E26" s="133" t="n"/>
+      <c r="F26" s="133" t="n"/>
+      <c r="G26" s="125" t="n"/>
+      <c r="L26" s="85" t="n"/>
+      <c r="M26" s="86" t="n"/>
+      <c r="N26" s="87" t="n"/>
+      <c r="O26" s="87" t="n"/>
+    </row>
+    <row r="27" ht="24.75" customHeight="1" s="123">
+      <c r="A27" s="134" t="inlineStr">
         <is>
           <t>A/C NO:100001100764430</t>
         </is>
       </c>
-      <c r="L27" s="95" t="n"/>
-      <c r="M27" s="96" t="n"/>
-      <c r="N27" s="97" t="n"/>
-      <c r="O27" s="97" t="n"/>
-    </row>
-    <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="51" t="inlineStr">
+      <c r="L27" s="85" t="n"/>
+      <c r="M27" s="86" t="n"/>
+      <c r="N27" s="87" t="n"/>
+      <c r="O27" s="87" t="n"/>
+    </row>
+    <row r="28" ht="27" customHeight="1" s="123">
+      <c r="A28" s="134" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：BKCHKHPPXXX</t>
         </is>
       </c>
-      <c r="L28" s="95" t="n"/>
-      <c r="M28" s="96" t="n"/>
-      <c r="N28" s="97" t="n"/>
-      <c r="O28" s="97" t="n"/>
-    </row>
-    <row r="29" ht="61.5" customHeight="1">
-      <c r="E29" s="87" t="inlineStr">
+      <c r="L28" s="85" t="n"/>
+      <c r="M28" s="86" t="n"/>
+      <c r="N28" s="87" t="n"/>
+      <c r="O28" s="87" t="n"/>
+    </row>
+    <row r="29" ht="61.5" customHeight="1" s="123">
+      <c r="E29" s="77" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="F29" s="87" t="n"/>
-      <c r="G29" s="87" t="n"/>
-      <c r="H29" s="87" t="n"/>
-      <c r="L29" s="95" t="n"/>
-      <c r="M29" s="96" t="n"/>
-      <c r="N29" s="97" t="n"/>
-      <c r="O29" s="97" t="n"/>
-    </row>
-    <row r="30" ht="42" customHeight="1">
-      <c r="D30" s="88" t="n"/>
-      <c r="E30" s="89" t="n"/>
-      <c r="F30" s="90" t="inlineStr">
+      <c r="F29" s="77" t="n"/>
+      <c r="G29" s="77" t="n"/>
+      <c r="H29" s="77" t="n"/>
+      <c r="L29" s="85" t="n"/>
+      <c r="M29" s="86" t="n"/>
+      <c r="N29" s="87" t="n"/>
+      <c r="O29" s="87" t="n"/>
+    </row>
+    <row r="30" ht="42" customHeight="1" s="123">
+      <c r="D30" s="78" t="n"/>
+      <c r="E30" s="79" t="n"/>
+      <c r="F30" s="80" t="inlineStr">
         <is>
           <t>Sign &amp; Stamp</t>
         </is>
       </c>
-      <c r="G30" s="91" t="n"/>
-      <c r="L30" s="95" t="n"/>
-      <c r="M30" s="96" t="n"/>
-      <c r="N30" s="97" t="n"/>
-      <c r="O30" s="97" t="n"/>
-    </row>
-    <row r="31" ht="24.75" customHeight="1">
-      <c r="D31" s="88" t="n"/>
-      <c r="E31" s="89" t="n"/>
-      <c r="F31" s="89" t="n"/>
-      <c r="G31" s="91" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="96" t="n"/>
-      <c r="N31" s="97" t="n"/>
-      <c r="O31" s="97" t="n"/>
-    </row>
-    <row r="32" ht="27" customHeight="1">
-      <c r="D32" s="88" t="n"/>
-      <c r="E32" s="89" t="n"/>
-      <c r="F32" s="89" t="n"/>
-      <c r="G32" s="91" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="96" t="n"/>
-      <c r="N32" s="97" t="n"/>
-      <c r="O32" s="97" t="n"/>
-    </row>
-    <row r="33" ht="21" customHeight="1">
-      <c r="D33" s="88" t="n"/>
-      <c r="E33" s="89" t="n"/>
-      <c r="F33" s="92" t="inlineStr">
+      <c r="G30" s="81" t="n"/>
+      <c r="L30" s="85" t="n"/>
+      <c r="M30" s="86" t="n"/>
+      <c r="N30" s="87" t="n"/>
+      <c r="O30" s="87" t="n"/>
+    </row>
+    <row r="31" ht="24.75" customHeight="1" s="123">
+      <c r="D31" s="78" t="n"/>
+      <c r="E31" s="79" t="n"/>
+      <c r="F31" s="79" t="n"/>
+      <c r="G31" s="81" t="n"/>
+      <c r="L31" s="85" t="n"/>
+      <c r="M31" s="86" t="n"/>
+      <c r="N31" s="87" t="n"/>
+      <c r="O31" s="87" t="n"/>
+    </row>
+    <row r="32" ht="27" customHeight="1" s="123">
+      <c r="D32" s="78" t="n"/>
+      <c r="E32" s="79" t="n"/>
+      <c r="F32" s="79" t="n"/>
+      <c r="G32" s="81" t="n"/>
+      <c r="L32" s="85" t="n"/>
+      <c r="M32" s="86" t="n"/>
+      <c r="N32" s="87" t="n"/>
+      <c r="O32" s="87" t="n"/>
+    </row>
+    <row r="33" ht="21" customHeight="1" s="123">
+      <c r="D33" s="78" t="n"/>
+      <c r="E33" s="79" t="n"/>
+      <c r="F33" s="82" t="inlineStr">
         <is>
           <t>ZENG XUELI</t>
         </is>
       </c>
-      <c r="G33" s="92" t="n"/>
-      <c r="L33" s="95" t="n"/>
-      <c r="M33" s="96" t="n"/>
-      <c r="N33" s="97" t="n"/>
-      <c r="O33" s="97" t="n"/>
-    </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="D34" s="93" t="n"/>
-      <c r="E34" s="93" t="n"/>
-      <c r="F34" s="93" t="n"/>
-      <c r="G34" s="94" t="n"/>
-    </row>
-    <row r="35" ht="21" customHeight="1">
-      <c r="D35" s="93" t="n"/>
-      <c r="E35" s="93" t="n"/>
-      <c r="F35" s="93" t="n"/>
-      <c r="G35" s="94" t="n"/>
-    </row>
-    <row r="36" ht="21" customHeight="1"/>
-    <row r="37" ht="21" customHeight="1"/>
-    <row r="38" ht="21" customHeight="1"/>
-    <row r="39" ht="21" customHeight="1"/>
-    <row r="40" ht="17.25" customHeight="1"/>
+      <c r="G33" s="82" t="n"/>
+      <c r="L33" s="85" t="n"/>
+      <c r="M33" s="86" t="n"/>
+      <c r="N33" s="87" t="n"/>
+      <c r="O33" s="87" t="n"/>
+    </row>
+    <row r="34" ht="25.5" customHeight="1" s="123">
+      <c r="D34" s="83" t="n"/>
+      <c r="E34" s="83" t="n"/>
+      <c r="F34" s="83" t="n"/>
+      <c r="G34" s="84" t="n"/>
+    </row>
+    <row r="35" ht="21" customHeight="1" s="123">
+      <c r="D35" s="83" t="n"/>
+      <c r="E35" s="83" t="n"/>
+      <c r="F35" s="83" t="n"/>
+      <c r="G35" s="84" t="n"/>
+    </row>
+    <row r="36" ht="21" customHeight="1" s="123"/>
+    <row r="37" ht="21" customHeight="1" s="123"/>
+    <row r="38" ht="21" customHeight="1" s="123"/>
+    <row r="39" ht="21" customHeight="1" s="123"/>
+    <row r="40" ht="17.25" customHeight="1" s="123"/>
     <row r="41"/>
     <row r="42"/>
     <row r="43"/>
@@ -3013,7 +2440,7 @@
     <row r="49"/>
     <row r="50"/>
     <row r="51"/>
-    <row r="52"/>
+    <row r="52" ht="15" customHeight="1" s="123"/>
     <row r="53"/>
     <row r="54"/>
     <row r="55"/>
@@ -3197,398 +2624,398 @@
   </sheetPr>
   <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.1047619047619" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="25.4380952380952" customWidth="1" min="1" max="1"/>
-    <col width="22.8857142857143" customWidth="1" style="2" min="2" max="2"/>
-    <col width="19.4380952380952" customWidth="1" min="3" max="3"/>
-    <col width="26.6666666666667" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" style="3" min="5" max="6"/>
-    <col width="13.6666666666667" customWidth="1" style="3" min="7" max="7"/>
-    <col width="15.552380952381" customWidth="1" style="3" min="8" max="8"/>
-    <col width="23.6666666666667" customWidth="1" style="3" min="9" max="9"/>
-    <col width="12.4380952380952" customWidth="1" style="4" min="10" max="10"/>
-    <col width="12.8857142857143" customWidth="1" min="11" max="11"/>
-    <col width="12.552380952381" customWidth="1" min="12" max="12"/>
-    <col width="12.552380952381" customWidth="1" min="14" max="14"/>
-    <col width="12.552380952381" customWidth="1" min="16" max="16"/>
+    <col width="25.44140625" customWidth="1" style="123" min="1" max="1"/>
+    <col width="22.88671875" customWidth="1" style="137" min="2" max="2"/>
+    <col width="19.44140625" customWidth="1" style="123" min="3" max="3"/>
+    <col width="26.6640625" customWidth="1" style="123" min="4" max="4"/>
+    <col width="15" customWidth="1" style="124" min="5" max="6"/>
+    <col width="13.6640625" customWidth="1" style="124" min="7" max="7"/>
+    <col width="15.5546875" customWidth="1" style="124" min="8" max="8"/>
+    <col width="23.6640625" customWidth="1" style="124" min="9" max="9"/>
+    <col width="12.44140625" customWidth="1" style="4" min="10" max="10"/>
+    <col width="12.88671875" customWidth="1" style="123" min="11" max="11"/>
+    <col width="12.5546875" customWidth="1" style="123" min="12" max="12"/>
+    <col width="12.5546875" customWidth="1" style="123" min="14" max="14"/>
+    <col width="12.5546875" customWidth="1" style="123" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="38.25" customHeight="1" s="123">
+      <c r="A1" s="122" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+    <row r="2" ht="24" customHeight="1" s="123">
+      <c r="A2" s="125" t="inlineStr">
         <is>
           <t xml:space="preserve"> XIN BAVET SEZ, Road No. 316A, Trapeang Bon and  Prey Kokir  Villages, Prey Kokir  Commune, Chantrea District, </t>
         </is>
       </c>
     </row>
-    <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+    <row r="3" ht="25.5" customHeight="1" s="123">
+      <c r="A3" s="126" t="inlineStr">
         <is>
           <t>Svay Rieng Province, Kingdom of Cambodia.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="25.5" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+    <row r="4" ht="25.5" customHeight="1" s="123">
+      <c r="A4" s="125" t="inlineStr">
         <is>
           <t>VAT:L001-901903209</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
+    <row r="5" ht="25.5" customHeight="1" s="123">
+      <c r="A5" s="127" t="inlineStr">
         <is>
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="B5" s="9" t="n"/>
-      <c r="C5" s="9" t="n"/>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="9" t="n"/>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="9" t="n"/>
-      <c r="I5" s="9" t="n"/>
-    </row>
-    <row r="6" ht="54" customHeight="1">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="B5" s="128" t="n"/>
+      <c r="C5" s="128" t="n"/>
+      <c r="D5" s="128" t="n"/>
+      <c r="E5" s="128" t="n"/>
+      <c r="F5" s="128" t="n"/>
+      <c r="G5" s="128" t="n"/>
+      <c r="H5" s="128" t="n"/>
+      <c r="I5" s="128" t="n"/>
+    </row>
+    <row r="6" ht="54" customHeight="1" s="123">
+      <c r="A6" s="129" t="inlineStr">
         <is>
           <t>PACKING LIST</t>
         </is>
       </c>
-      <c r="B6" s="11" t="n"/>
-      <c r="C6" s="11" t="n"/>
-      <c r="D6" s="11" t="n"/>
-      <c r="E6" s="11" t="n"/>
-      <c r="F6" s="11" t="n"/>
-      <c r="G6" s="11" t="n"/>
-      <c r="H6" s="11" t="n"/>
-      <c r="I6" s="11" t="n"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="12" t="n"/>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="12" t="n"/>
-      <c r="D7" s="12" t="n"/>
-      <c r="E7" s="6" t="n"/>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="6" t="n"/>
-      <c r="H7" s="14" t="inlineStr">
+      <c r="B6" s="130" t="n"/>
+      <c r="C6" s="130" t="n"/>
+      <c r="D6" s="130" t="n"/>
+      <c r="E6" s="130" t="n"/>
+      <c r="F6" s="130" t="n"/>
+      <c r="G6" s="130" t="n"/>
+      <c r="H6" s="130" t="n"/>
+      <c r="I6" s="130" t="n"/>
+    </row>
+    <row r="7" ht="18" customHeight="1" s="123">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="125" t="n"/>
+      <c r="F7" s="125" t="n"/>
+      <c r="G7" s="125" t="n"/>
+      <c r="H7" s="8" t="inlineStr">
         <is>
           <t>Ref No.:</t>
         </is>
       </c>
-      <c r="I7" s="62" t="inlineStr">
+      <c r="I7" s="52" t="inlineStr">
         <is>
           <t>JFREF</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="15" t="inlineStr">
+    <row r="8" ht="30" customHeight="1" s="123">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>EXPORTER:</t>
         </is>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="17" t="n"/>
-      <c r="H8" s="17" t="inlineStr">
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="11" t="inlineStr">
         <is>
           <t>INVOICE NO :</t>
         </is>
       </c>
-      <c r="I8" s="63" t="inlineStr">
+      <c r="I8" s="53" t="inlineStr">
         <is>
           <t>JFINV</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="12" t="n"/>
-      <c r="B9" s="13" t="inlineStr">
+    <row r="9" ht="21" customHeight="1" s="123">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages,</t>
         </is>
       </c>
-      <c r="F9" s="6" t="n"/>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="F9" s="125" t="n"/>
+      <c r="G9" s="125" t="n"/>
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="I9" s="131" t="inlineStr">
+      <c r="I9" s="145" t="inlineStr">
         <is>
           <t>JFTIME</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="12" t="n"/>
-      <c r="B10" s="13" t="inlineStr">
+    <row r="10" ht="22.5" customHeight="1" s="123">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia</t>
         </is>
       </c>
-      <c r="F10" s="6" t="n"/>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="18" t="inlineStr">
+      <c r="F10" s="125" t="n"/>
+      <c r="G10" s="125" t="n"/>
+      <c r="H10" s="12" t="inlineStr">
         <is>
           <t>FCA :</t>
         </is>
       </c>
-      <c r="I10" s="65" t="inlineStr">
+      <c r="I10" s="55" t="inlineStr">
         <is>
           <t>BAVET, SVAY RIENG</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20.25" customHeight="1">
-      <c r="A11" s="12" t="n"/>
-      <c r="B11" s="13" t="inlineStr">
+    <row r="11" ht="20.25" customHeight="1" s="123">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="F11" s="6" t="n"/>
-      <c r="G11" s="6" t="n"/>
-      <c r="H11" s="6" t="n"/>
-      <c r="I11" s="6" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="12" t="n"/>
-      <c r="D12" s="12" t="n"/>
-      <c r="E12" s="6" t="n"/>
-      <c r="F12" s="6" t="n"/>
-      <c r="G12" s="6" t="n"/>
-      <c r="H12" s="6" t="n"/>
-      <c r="I12" s="6" t="n"/>
-    </row>
-    <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" s="19" t="inlineStr">
+      <c r="F11" s="125" t="n"/>
+      <c r="G11" s="125" t="n"/>
+      <c r="H11" s="125" t="n"/>
+      <c r="I11" s="125" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="123">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="125" t="n"/>
+      <c r="F12" s="125" t="n"/>
+      <c r="G12" s="125" t="n"/>
+      <c r="H12" s="125" t="n"/>
+      <c r="I12" s="125" t="n"/>
+    </row>
+    <row r="13" ht="25.5" customHeight="1" s="123">
+      <c r="A13" s="13" t="inlineStr">
         <is>
           <t>CONSIGNEE :</t>
         </is>
       </c>
-      <c r="B13" s="20" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>JASON FURNITURE VIET NAM COMPANY LIMITED</t>
         </is>
       </c>
-      <c r="F13" s="21" t="n"/>
-      <c r="G13" s="21" t="n"/>
-      <c r="H13" s="21" t="n"/>
-      <c r="I13" s="27" t="n"/>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="12" t="n"/>
-      <c r="B14" s="22" t="inlineStr">
+      <c r="F13" s="15" t="n"/>
+      <c r="G13" s="15" t="n"/>
+      <c r="H13" s="15" t="n"/>
+      <c r="I13" s="21" t="n"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1" s="123">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>LOT 37, 38, 39, 40, 41, 44, 50, 51, 54，55, 56，B2 CLUSTER, DONG XOAI III INDUSTRIAL ZONE,</t>
         </is>
       </c>
-      <c r="C14" s="23" t="n"/>
-      <c r="D14" s="23" t="n"/>
-      <c r="E14" s="24" t="n"/>
-      <c r="F14" s="24" t="n"/>
-      <c r="G14" s="24" t="n"/>
-      <c r="H14" s="24" t="n"/>
-    </row>
-    <row r="15" ht="21" customHeight="1">
-      <c r="A15" s="12" t="n"/>
-      <c r="B15" s="25" t="inlineStr">
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="17" t="n"/>
+      <c r="E14" s="18" t="n"/>
+      <c r="F14" s="18" t="n"/>
+      <c r="G14" s="18" t="n"/>
+      <c r="H14" s="18" t="n"/>
+    </row>
+    <row r="15" ht="21" customHeight="1" s="123">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="19" t="inlineStr">
         <is>
           <t>BINH PHUOC WARD,DONG NAI PROVINCE, VIETNAM</t>
         </is>
       </c>
-      <c r="C15" s="26" t="n"/>
-      <c r="D15" s="26" t="n"/>
-      <c r="E15" s="27" t="n"/>
-      <c r="F15" s="27" t="n"/>
-      <c r="G15" s="27" t="n"/>
-      <c r="H15" s="27" t="n"/>
-    </row>
-    <row r="16" ht="21" customHeight="1">
-      <c r="A16" s="12" t="n"/>
-      <c r="B16" s="28" t="inlineStr">
+      <c r="C15" s="20" t="n"/>
+      <c r="D15" s="20" t="n"/>
+      <c r="E15" s="21" t="n"/>
+      <c r="F15" s="21" t="n"/>
+      <c r="G15" s="21" t="n"/>
+      <c r="H15" s="21" t="n"/>
+    </row>
+    <row r="16" ht="21" customHeight="1" s="123">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="22" t="inlineStr">
         <is>
           <t>Contact Person : Mr. Thuy   TEl: 0379367084</t>
         </is>
       </c>
-      <c r="C16" s="26" t="n"/>
-      <c r="D16" s="26" t="n"/>
-      <c r="E16" s="27" t="n"/>
-      <c r="F16" s="27" t="n"/>
-      <c r="G16" s="27" t="n"/>
-      <c r="H16" s="27" t="n"/>
-    </row>
-    <row r="17" ht="21" customHeight="1">
-      <c r="A17" s="12" t="n"/>
-      <c r="B17" s="28" t="inlineStr">
+      <c r="C16" s="20" t="n"/>
+      <c r="D16" s="20" t="n"/>
+      <c r="E16" s="21" t="n"/>
+      <c r="F16" s="21" t="n"/>
+      <c r="G16" s="21" t="n"/>
+      <c r="H16" s="21" t="n"/>
+    </row>
+    <row r="17" ht="21" customHeight="1" s="123">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="22" t="inlineStr">
         <is>
           <t>EMAlL:jyangbin4720@dingtalk.com jialy@kukahome.com</t>
         </is>
       </c>
-      <c r="C17" s="26" t="n"/>
-      <c r="D17" s="26" t="n"/>
-      <c r="E17" s="27" t="n"/>
-      <c r="F17" s="27" t="n"/>
-      <c r="G17" s="27" t="n"/>
-      <c r="H17" s="27" t="n"/>
-    </row>
-    <row r="18" ht="21" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="28" t="inlineStr">
+      <c r="C17" s="20" t="n"/>
+      <c r="D17" s="20" t="n"/>
+      <c r="E17" s="21" t="n"/>
+      <c r="F17" s="21" t="n"/>
+      <c r="G17" s="21" t="n"/>
+      <c r="H17" s="21" t="n"/>
+    </row>
+    <row r="18" ht="21" customHeight="1" s="123">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="22" t="inlineStr">
         <is>
           <t>dailin@kukahome.com huanggf@kukahome.com zhangzp@kukahome.com</t>
         </is>
       </c>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="12" t="n"/>
-      <c r="E18" s="6" t="n"/>
-      <c r="F18" s="6" t="n"/>
-      <c r="G18" s="6" t="n"/>
-      <c r="H18" s="6" t="n"/>
-    </row>
-    <row r="19" ht="27.75" customHeight="1">
-      <c r="A19" s="29" t="inlineStr">
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="125" t="n"/>
+      <c r="F18" s="125" t="n"/>
+      <c r="G18" s="125" t="n"/>
+      <c r="H18" s="125" t="n"/>
+    </row>
+    <row r="19" ht="27.75" customHeight="1" s="123">
+      <c r="A19" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve">SHIP: </t>
         </is>
       </c>
-      <c r="B19" s="13" t="inlineStr">
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO DONG NAI PROVINCE, VIETNAM.</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="27.75" customHeight="1">
-      <c r="A20" s="30" t="n"/>
-      <c r="B20" s="31" t="n"/>
-    </row>
-    <row r="21" ht="27" customHeight="1"/>
-    <row r="22" ht="27" customHeight="1"/>
-    <row r="23" ht="27" customHeight="1"/>
-    <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="30" t="n"/>
-      <c r="B24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="45" t="inlineStr">
+    <row r="20" ht="27.75" customHeight="1" s="123">
+      <c r="A20" s="24" t="n"/>
+      <c r="B20" s="25" t="n"/>
+    </row>
+    <row r="21" ht="27" customHeight="1" s="123"/>
+    <row r="22" ht="27" customHeight="1" s="123"/>
+    <row r="23" ht="27" customHeight="1" s="123"/>
+    <row r="24" ht="27" customHeight="1" s="123">
+      <c r="A24" s="24" t="n"/>
+      <c r="B24" s="25" t="n"/>
+    </row>
+    <row r="25" ht="27" customHeight="1" s="123">
+      <c r="A25" s="36" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="B25" s="45" t="n"/>
-      <c r="C25" s="45" t="n"/>
-      <c r="D25" s="46" t="n"/>
-      <c r="E25" s="47" t="n"/>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
-      <c r="H25" s="6" t="n"/>
-    </row>
-    <row r="26" ht="65.25" customHeight="1">
-      <c r="A26" s="48" t="inlineStr">
+      <c r="B25" s="36" t="n"/>
+      <c r="C25" s="36" t="n"/>
+      <c r="D25" s="131" t="n"/>
+      <c r="E25" s="38" t="n"/>
+      <c r="F25" s="125" t="n"/>
+      <c r="G25" s="125" t="n"/>
+      <c r="H25" s="125" t="n"/>
+    </row>
+    <row r="26" ht="65.25" customHeight="1" s="123">
+      <c r="A26" s="39" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B26" s="49" t="inlineStr">
+      <c r="B26" s="140" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="E26" s="50" t="n"/>
-      <c r="F26" s="50" t="n"/>
-      <c r="G26" s="50" t="n"/>
-      <c r="H26" s="6" t="n"/>
-    </row>
-    <row r="27" ht="51.75" customHeight="1">
-      <c r="A27" s="49" t="inlineStr">
+      <c r="E26" s="40" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="125" t="n"/>
+    </row>
+    <row r="27" ht="51.75" customHeight="1" s="123">
+      <c r="A27" s="140" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED  PHNOM PENH BRANCH
                                           /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="E27" s="50" t="n"/>
-      <c r="F27" s="50" t="n"/>
-      <c r="G27" s="50" t="n"/>
-      <c r="H27" s="50" t="n"/>
-    </row>
-    <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="51" t="inlineStr">
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
+    </row>
+    <row r="28" ht="27" customHeight="1" s="123">
+      <c r="A28" s="134" t="inlineStr">
         <is>
           <t>A/C NO:100001100764430</t>
         </is>
       </c>
-      <c r="B28" s="51" t="n"/>
-      <c r="C28" s="51" t="n"/>
-      <c r="D28" s="51" t="n"/>
-      <c r="E28" s="52" t="n"/>
-      <c r="F28" s="52" t="n"/>
-      <c r="G28" s="52" t="n"/>
-      <c r="H28" s="52" t="n"/>
-    </row>
-    <row r="29" ht="27" customHeight="1">
-      <c r="A29" s="51" t="inlineStr">
+      <c r="B28" s="134" t="n"/>
+      <c r="C28" s="134" t="n"/>
+      <c r="D28" s="134" t="n"/>
+      <c r="E28" s="42" t="n"/>
+      <c r="F28" s="42" t="n"/>
+      <c r="G28" s="42" t="n"/>
+      <c r="H28" s="42" t="n"/>
+    </row>
+    <row r="29" ht="27" customHeight="1" s="123">
+      <c r="A29" s="134" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：BKCHKHPPXXX</t>
         </is>
       </c>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="52" t="n"/>
-      <c r="F29" s="52" t="n"/>
-      <c r="G29" s="52" t="n"/>
-      <c r="H29" s="52" t="n"/>
-    </row>
-    <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="53" t="n"/>
-      <c r="B30" s="54" t="n"/>
-      <c r="C30" s="53" t="n"/>
-      <c r="D30" s="53" t="n"/>
-      <c r="E30" s="55" t="n"/>
-      <c r="G30" s="6" t="inlineStr">
+      <c r="B29" s="134" t="n"/>
+      <c r="C29" s="134" t="n"/>
+      <c r="D29" s="134" t="n"/>
+      <c r="E29" s="42" t="n"/>
+      <c r="F29" s="42" t="n"/>
+      <c r="G29" s="42" t="n"/>
+      <c r="H29" s="42" t="n"/>
+    </row>
+    <row r="30" ht="27" customHeight="1" s="123">
+      <c r="A30" s="43" t="n"/>
+      <c r="B30" s="44" t="n"/>
+      <c r="C30" s="43" t="n"/>
+      <c r="D30" s="43" t="n"/>
+      <c r="E30" s="45" t="n"/>
+      <c r="G30" s="125" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="H30" s="55" t="n"/>
-    </row>
-    <row r="31" ht="27" customHeight="1"/>
-    <row r="32" ht="27" customHeight="1"/>
-    <row r="33" ht="27" customHeight="1"/>
-    <row r="34" ht="27" customHeight="1"/>
-    <row r="35" ht="27" customHeight="1"/>
+      <c r="H30" s="45" t="n"/>
+    </row>
+    <row r="31" ht="27" customHeight="1" s="123"/>
+    <row r="32" ht="27" customHeight="1" s="123"/>
+    <row r="33" ht="27" customHeight="1" s="123"/>
+    <row r="34" ht="27" customHeight="1" s="123"/>
+    <row r="35" ht="27" customHeight="1" s="123"/>
     <row r="36" ht="27" customFormat="1" customHeight="1" s="1"/>
-    <row r="37" ht="27" customHeight="1"/>
-    <row r="38" ht="27" customHeight="1"/>
-    <row r="39" ht="21" customHeight="1"/>
-    <row r="40" ht="21" customHeight="1"/>
-    <row r="41" ht="65.25" customHeight="1"/>
-    <row r="42" ht="51.75" customHeight="1"/>
-    <row r="43" ht="21" customHeight="1"/>
-    <row r="44" ht="17.25" customHeight="1"/>
+    <row r="37" ht="27" customHeight="1" s="123"/>
+    <row r="38" ht="27" customHeight="1" s="123"/>
+    <row r="39" ht="21" customHeight="1" s="123"/>
+    <row r="40" ht="21" customHeight="1" s="123"/>
+    <row r="41" ht="65.25" customHeight="1" s="123"/>
+    <row r="42" ht="51.75" customHeight="1" s="123"/>
+    <row r="43" ht="21" customHeight="1" s="123"/>
+    <row r="44" ht="17.25" customHeight="1" s="123"/>
     <row r="45"/>
     <row r="46"/>
     <row r="47"/>
@@ -3600,18 +3027,18 @@
     <row r="53"/>
     <row r="54"/>
     <row r="55"/>
-    <row r="56"/>
+    <row r="56" ht="15" customHeight="1" s="123"/>
     <row r="57"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="115.65" customHeight="1"/>
-    <row r="65" ht="113.7" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="58" ht="15.6" customHeight="1" s="123"/>
+    <row r="59" ht="15.6" customHeight="1" s="123"/>
+    <row r="60" ht="15.6" customHeight="1" s="123"/>
+    <row r="61" ht="15.6" customHeight="1" s="123"/>
+    <row r="62" ht="15.6" customHeight="1" s="123"/>
+    <row r="63" ht="15.6" customHeight="1" s="123"/>
+    <row r="64" ht="115.65" customHeight="1" s="123"/>
+    <row r="65" ht="113.7" customHeight="1" s="123"/>
+    <row r="66" ht="15.6" customHeight="1" s="123"/>
+    <row r="67" ht="16.8" customHeight="1" s="123"/>
     <row r="68"/>
     <row r="69"/>
     <row r="70"/>
@@ -3748,15 +3175,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.314583333333333" bottom="0" header="0" footer="0"/>

--- a/invoice_gen/TEMPLATE/JF.xlsx
+++ b/invoice_gen/TEMPLATE/JF.xlsx
@@ -1973,18 +1973,14 @@
     <row r="199"/>
     <row r="200" ht="27.9" customHeight="1" s="123"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C27:E27"/>
+  <mergeCells count="9">
     <mergeCell ref="A200:B200"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C24:E24"/>
   </mergeCells>
@@ -2590,18 +2586,14 @@
     <row r="199"/>
     <row r="200"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A32:G32"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A27:G27"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A24:C24"/>
@@ -3173,17 +3165,15 @@
     <row r="199"/>
     <row r="200"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A3:I3"/>
+  <mergeCells count="8">
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A3:I3"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.314583333333333" bottom="0" header="0" footer="0"/>
